--- a/DateBase/orders/Nha Thu_2025-3-10.xlsx
+++ b/DateBase/orders/Nha Thu_2025-3-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,10 +732,61 @@
       <c r="C36" t="str">
         <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L42"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -793,7 +844,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012910710.55151.58666661015582052055106241010101010111250</v>
+        <v>012910710.55151.5866666101558205205510624101010101011125101010551010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-3-10.xlsx
+++ b/DateBase/orders/Nha Thu_2025-3-10.xlsx
@@ -846,6 +846,9 @@
       <c r="G2" t="str">
         <v>012910710.55151.5866666101558205205510624101010101011125101010551010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
